--- a/medicine/Enfance/Jacqueline_Balcells/Jacqueline_Balcells.xlsx
+++ b/medicine/Enfance/Jacqueline_Balcells/Jacqueline_Balcells.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacqueline Marty Aboitiz de Balcells  (née en 1944 à Valparaiso) est une femme de lettres chilienne, auteure de littérature d'enfance et de jeunesse.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle fait sa scolarité à l'Alliance française de Santiago du Chili, puis se forme à la Croix-Rouge pour travailler en hôpital militaire. Elle étudie ensuite le journalisme à l'université pontificale catholique du Chili[1].
-En 1966, elle épouse le poète Ignacio Balcells. De 1982 à 1985, elle vit à Paris, où est catéchiste dans une des paroisses de la capitale française. Elle commence à publier des contes dans la revue catholique pour la jeunesse J'aime lire[2]. Elle commence à publier au Chili en 1986.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle fait sa scolarité à l'Alliance française de Santiago du Chili, puis se forme à la Croix-Rouge pour travailler en hôpital militaire. Elle étudie ensuite le journalisme à l'université pontificale catholique du Chili.
+En 1966, elle épouse le poète Ignacio Balcells. De 1982 à 1985, elle vit à Paris, où est catéchiste dans une des paroisses de la capitale française. Elle commence à publier des contes dans la revue catholique pour la jeunesse J'aime lire. Elle commence à publier au Chili en 1986.
 </t>
         </is>
       </c>
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>En français
-Le Raisin enchanté, illustré par Philippe Mignon, J'aime lire n° 90, 1984.
+          <t>En français</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le Raisin enchanté, illustré par Philippe Mignon, J'aime lire n° 90, 1984.
 La Princesse et le Nain vert, ill. par Nicole Claveloux, Bayard Presse, 1988
 Le Géant enseveli, ill. par Véronique Cau, Bayard Presse, 1990.
 Un pirate dans la ville, ill. par Quentin Blake, Bayard Presse, 1993.
